--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
   <si>
     <t>ADD</t>
   </si>
@@ -555,7 +555,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -854,18 +954,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.90625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.453125" customWidth="1"/>
     <col min="8" max="8" width="26.08984375" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0.1796875" customWidth="1"/>
     <col min="12" max="12" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -918,24 +1020,30 @@
         <v>21</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H34" si="0">HEX2DEC(G3)</f>
+        <f>HEX2DEC(G3)</f>
         <v>33</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="8" t="str">
-        <f t="shared" ref="J3:J34" si="1">CONCATENATE("mips_error ",  C3, " (mips_cpu_h state, ", IF(F3="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F3 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error ADDU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C3, " (mips_cpu_h state, ", IF(F3="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F3 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error ADDU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K34" si="2">CONCATENATE("case ",H3, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, ",CHAR(34),C3,CHAR(34), "\n",");}",CHAR(10),"return ",C3," (state, ",IF(F3="I","rs, rt, imm",IF(F3="J"," target","rs, rt, rd, sa, function")),");")</f>
+        <f>CONCATENATE("case ",H3, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C3, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C3," (state, ",IF(F3="I","rs, rt, imm",IF(F3="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 33:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "ADDU"\n);}
-return ADDU (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "ADDU\n");
+}
+step_err =  ADDU (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -956,24 +1064,30 @@
         <v>23</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G4)</f>
         <v>35</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SUBU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C4, " (mips_cpu_h state, ", IF(F4="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F4 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SUBU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H4, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C4, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C4," (state, ",IF(F4="I","rs, rt, imm",IF(F4="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 35:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SUBU"\n);}
-return SUBU (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SUBU\n");
+}
+step_err =  SUBU (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -994,24 +1108,30 @@
         <v>24</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G5)</f>
         <v>36</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error AND (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C5, " (mips_cpu_h state, ", IF(F5="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F5 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error AND (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H5, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C5, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C5," (state, ",IF(F5="I","rs, rt, imm",IF(F5="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 36:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "AND"\n);}
-return AND (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "AND\n");
+}
+step_err =  AND (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1032,24 +1152,30 @@
         <v>25</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G6)</f>
         <v>37</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error OR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C6, " (mips_cpu_h state, ", IF(F6="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F6 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error OR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H6, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C6, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C6," (state, ",IF(F6="I","rs, rt, imm",IF(F6="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 37:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "OR"\n);}
-return OR (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "OR\n");
+}
+step_err =  OR (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1070,25 +1196,31 @@
         <v>26</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G7)</f>
         <v>38</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error XOR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C7, " (mips_cpu_h state, ", IF(F7="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F7 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error XOR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H7, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C7, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C7," (state, ",IF(F7="I","rs, rt, imm",IF(F7="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 38:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "XOR"\n);}
-return XOR (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "XOR\n");
+}
+step_err =  XOR (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1108,25 +1240,31 @@
         <v>134</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G8)</f>
         <v>43</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SLTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C8, " (mips_cpu_h state, ", IF(F8="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F8 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SLTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H8, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C8, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C8," (state, ",IF(F8="I","rs, rt, imm",IF(F8="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 43:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SLTU"\n);}
-return SLTU (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLTU\n");
+}
+step_err =  SLTU (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1146,25 +1284,31 @@
         <v>8</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G9)</f>
         <v>8</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C9, " (mips_cpu_h state, ", IF(F9="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F9 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error ADDI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H9, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C9, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C9," (state, ",IF(F9="I","rs, rt, imm",IF(F9="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 8:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "ADDI"\n);}
-return ADDI (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "ADDI\n");
+}
+step_err =  ADDI (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1184,25 +1328,31 @@
         <v>9</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G10)</f>
         <v>9</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C10, " (mips_cpu_h state, ", IF(F10="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F10 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error ADDIU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H10, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C10, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C10," (state, ",IF(F10="I","rs, rt, imm",IF(F10="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 9:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "ADDIU"\n);}
-return ADDIU (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "ADDIU\n");
+}
+step_err =  ADDIU (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1222,25 +1372,31 @@
         <v>121</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G11)</f>
         <v>12</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C11, " (mips_cpu_h state, ", IF(F11="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F11 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error ANDI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H11, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C11, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C11," (state, ",IF(F11="I","rs, rt, imm",IF(F11="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 12:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "ANDI"\n);}
-return ANDI (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "ANDI\n");
+}
+step_err =  ANDI (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1260,25 +1416,31 @@
         <v>133</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G12)</f>
         <v>13</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C12, " (mips_cpu_h state, ", IF(F12="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F12 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error ORI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H12, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C12, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C12," (state, ",IF(F12="I","rs, rt, imm",IF(F12="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 13:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "ORI"\n);}
-return ORI (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "ORI\n");
+}
+step_err =  ORI (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1298,25 +1460,31 @@
         <v>120</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G13)</f>
         <v>14</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C13, " (mips_cpu_h state, ", IF(F13="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F13 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error XORI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H13, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C13, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C13," (state, ",IF(F13="I","rs, rt, imm",IF(F13="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 14:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "XORI"\n);}
-return XORI (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "XORI\n");
+}
+step_err =  XORI (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1336,25 +1504,31 @@
         <v>131</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G14)</f>
         <v>15</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C14, " (mips_cpu_h state, ", IF(F14="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F14 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LUI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H14, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C14, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C14," (state, ",IF(F14="I","rs, rt, imm",IF(F14="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 15:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LUI"\n);}
-return LUI (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LUI\n");
+}
+step_err =  LUI (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>139</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1374,25 +1548,31 @@
         <v>23</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G15)</f>
         <v>35</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C15, " (mips_cpu_h state, ", IF(F15="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F15 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LW (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H15, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C15, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C15," (state, ",IF(F15="I","rs, rt, imm",IF(F15="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 35:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LW"\n);}
-return LW (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LW\n");
+}
+step_err =  LW (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>139</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1412,28 +1592,34 @@
         <v>134</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G16)</f>
         <v>43</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C16, " (mips_cpu_h state, ", IF(F16="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F16 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error SW (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H16, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C16, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C16," (state, ",IF(F16="I","rs, rt, imm",IF(F16="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 43:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SW"\n);}
-return SW (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SW\n");
+}
+step_err =  SW (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N16" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1450,28 +1636,34 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SLL (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C17, " (mips_cpu_h state, ", IF(F17="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F17 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SLL (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H17, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C17, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C17," (state, ",IF(F17="I","rs, rt, imm",IF(F17="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 0:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SLL"\n);}
-return SLL (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLL\n");
+}
+step_err =  SLL (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N17" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
@@ -1488,28 +1680,34 @@
         <v>2</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G18)</f>
         <v>2</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SRL (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C18, " (mips_cpu_h state, ", IF(F18="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F18 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SRL (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H18, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C18, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C18," (state, ",IF(F18="I","rs, rt, imm",IF(F18="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 2:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SRL"\n);}
-return SRL (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SRL\n");
+}
+step_err =  SRL (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N18" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
         <v>95</v>
       </c>
@@ -1526,28 +1724,34 @@
         <v>3</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G19)</f>
         <v>3</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SRA (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C19, " (mips_cpu_h state, ", IF(F19="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F19 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SRA (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H19, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C19, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C19," (state, ",IF(F19="I","rs, rt, imm",IF(F19="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 3:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SRA"\n);}
-return SRA (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SRA\n");
+}
+step_err =  SRA (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N19" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="2" t="s">
         <v>100</v>
       </c>
@@ -1564,28 +1768,34 @@
         <v>6</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G20)</f>
         <v>6</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SRLV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C20, " (mips_cpu_h state, ", IF(F20="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F20 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SRLV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H20, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C20, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C20," (state, ",IF(F20="I","rs, rt, imm",IF(F20="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 6:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SRLV"\n);}
-return SRLV (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SRLV\n");
+}
+step_err =  SRLV (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N20" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1602,28 +1812,34 @@
         <v>7</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G21)</f>
         <v>7</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SRAV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C21, " (mips_cpu_h state, ", IF(F21="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F21 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SRAV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H21, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C21, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C21," (state, ",IF(F21="I","rs, rt, imm",IF(F21="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 7:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SRAV"\n);}
-return SRAV (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SRAV\n");
+}
+step_err =  SRAV (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N21" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,28 +1856,34 @@
         <v>20</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G22)</f>
         <v>32</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error ADD (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C22, " (mips_cpu_h state, ", IF(F22="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F22 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error ADD (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H22, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C22, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C22," (state, ",IF(F22="I","rs, rt, imm",IF(F22="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 32:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "ADD"\n);}
-return ADD (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "ADD\n");
+}
+step_err =  ADD (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N22" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
@@ -1678,28 +1900,34 @@
         <v>22</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G23)</f>
         <v>34</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SUB (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C23, " (mips_cpu_h state, ", IF(F23="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F23 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SUB (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H23, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C23, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C23," (state, ",IF(F23="I","rs, rt, imm",IF(F23="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 34:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SUB"\n);}
-return SUB (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SUB\n");
+}
+step_err =  SUB (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N23" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
@@ -1716,28 +1944,34 @@
         <v>132</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G24)</f>
         <v>42</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SLT (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C24, " (mips_cpu_h state, ", IF(F24="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F24 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SLT (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H24, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C24, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C24," (state, ",IF(F24="I","rs, rt, imm",IF(F24="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 42:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SLT"\n);}
-return SLT (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLT\n");
+}
+step_err =  SLT (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N24" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
         <v>84</v>
       </c>
@@ -1754,28 +1988,34 @@
         <v>4</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G25)</f>
         <v>4</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">mips_error SLLV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C25, " (mips_cpu_h state, ", IF(F25="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F25 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error SLLV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H25, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C25, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C25," (state, ",IF(F25="I","rs, rt, imm",IF(F25="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 4:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SLLV"\n);}
-return SLLV (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLLV\n");
+}
+step_err =  SLLV (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N25" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1792,30 +2032,36 @@
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G26)</f>
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>126</v>
       </c>
       <c r="J26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C26, " (mips_cpu_h state, ", IF(F26="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F26 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BLTZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H26, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C26, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C26," (state, ",IF(F26="I","rs, rt, imm",IF(F26="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 1:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BLTZ"\n);}
-return BLTZ (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BLTZ\n");
+}
+step_err =  BLTZ (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1832,30 +2078,36 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G27)</f>
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>124</v>
       </c>
       <c r="J27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C27, " (mips_cpu_h state, ", IF(F27="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F27 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BGEZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H27, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C27, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C27," (state, ",IF(F27="I","rs, rt, imm",IF(F27="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 1:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BGEZ"\n);}
-return BGEZ (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BGEZ\n");
+}
+step_err =  BGEZ (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1872,28 +2124,34 @@
         <v>4</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G28)</f>
         <v>4</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C28, " (mips_cpu_h state, ", IF(F28="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F28 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BEQ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H28, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C28, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C28," (state, ",IF(F28="I","rs, rt, imm",IF(F28="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 4:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BEQ"\n);}
-return BEQ (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BEQ\n");
+}
+step_err =  BEQ (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1910,28 +2168,34 @@
         <v>5</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G29)</f>
         <v>5</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C29, " (mips_cpu_h state, ", IF(F29="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F29 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BNE (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H29, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C29, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C29," (state, ",IF(F29="I","rs, rt, imm",IF(F29="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 5:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BNE"\n);}
-return BNE (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BNE\n");
+}
+step_err =  BNE (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N29" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1948,28 +2212,34 @@
         <v>6</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G30)</f>
         <v>6</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C30, " (mips_cpu_h state, ", IF(F30="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F30 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BLEZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H30, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C30, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C30," (state, ",IF(F30="I","rs, rt, imm",IF(F30="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 6:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BLEZ"\n);}
-return BLEZ (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BLEZ\n");
+}
+step_err =  BLEZ (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N30" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
@@ -1986,28 +2256,34 @@
         <v>7</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G31)</f>
         <v>7</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C31, " (mips_cpu_h state, ", IF(F31="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F31 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BGTZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H31, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C31, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C31," (state, ",IF(F31="I","rs, rt, imm",IF(F31="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 7:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BGTZ"\n);}
-return BGTZ (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BGTZ\n");
+}
+step_err =  BGTZ (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N31" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="2" t="s">
         <v>89</v>
       </c>
@@ -2024,28 +2300,34 @@
         <v>117</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G32)</f>
         <v>10</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C32, " (mips_cpu_h state, ", IF(F32="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F32 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error SLTI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H32, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C32, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C32," (state, ",IF(F32="I","rs, rt, imm",IF(F32="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 10:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SLTI"\n);}
-return SLTI (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLTI\n");
+}
+step_err =  SLTI (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N32" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2062,28 +2344,34 @@
         <v>130</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G33)</f>
         <v>11</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C33, " (mips_cpu_h state, ", IF(F33="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F33 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error SLTIU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H33, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C33, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C33," (state, ",IF(F33="I","rs, rt, imm",IF(F33="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 11:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SLTIU"\n);}
-return SLTIU (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLTIU\n");
+}
+step_err =  SLTIU (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N33" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2100,28 +2388,34 @@
         <v>20</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(G34)</f>
         <v>32</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("mips_error ",  C34, " (mips_cpu_h state, ", IF(F34="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F34 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("case ",H34, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C34, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C34," (state, ",IF(F34="I","rs, rt, imm",IF(F34="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 32:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LB"\n);}
-return LB (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LB\n");
+}
+step_err =  LB (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N34" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,28 +2432,34 @@
         <v>21</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ref="H35:H55" si="3">HEX2DEC(G35)</f>
+        <f>HEX2DEC(G35)</f>
         <v>33</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="8" t="str">
-        <f t="shared" ref="J35:J55" si="4">CONCATENATE("mips_error ",  C35, " (mips_cpu_h state, ", IF(F35="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F35 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f>CONCATENATE("mips_error ",  C35, " (mips_cpu_h state, ", IF(F35="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F35 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35:K55" si="5">CONCATENATE("case ",H35, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, ",CHAR(34),C35,CHAR(34), "\n",");}",CHAR(10),"return ",C35," (state, ",IF(F35="I","rs, rt, imm",IF(F35="J"," target","rs, rt, rd, sa, function")),");")</f>
+        <f>CONCATENATE("case ",H35, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C35, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C35," (state, ",IF(F35="I","rs, rt, imm",IF(F35="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 33:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LH"\n);}
-return LH (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LH\n");
+}
+step_err =  LH (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N35" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
@@ -2176,28 +2476,34 @@
         <v>24</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G36)</f>
         <v>36</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C36, " (mips_cpu_h state, ", IF(F36="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F36 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LBU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H36, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C36, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C36," (state, ",IF(F36="I","rs, rt, imm",IF(F36="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 36:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LBU"\n);}
-return LBU (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LBU\n");
+}
+step_err =  LBU (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N36" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
@@ -2214,28 +2520,34 @@
         <v>25</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G37)</f>
         <v>37</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C37, " (mips_cpu_h state, ", IF(F37="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F37 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LHU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H37, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C37, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C37," (state, ",IF(F37="I","rs, rt, imm",IF(F37="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 37:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LHU"\n);}
-return LHU (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LHU\n");
+}
+step_err =  LHU (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N37" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
@@ -2252,28 +2564,34 @@
         <v>28</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G38)</f>
         <v>40</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C38, " (mips_cpu_h state, ", IF(F38="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F38 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error SB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H38, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C38, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C38," (state, ",IF(F38="I","rs, rt, imm",IF(F38="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 40:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SB"\n);}
-return SB (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SB\n");
+}
+step_err =  SB (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N38" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
@@ -2290,28 +2608,34 @@
         <v>29</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G39)</f>
         <v>41</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C39, " (mips_cpu_h state, ", IF(F39="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F39 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error SH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H39, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C39, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C39," (state, ",IF(F39="I","rs, rt, imm",IF(F39="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 41:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "SH"\n);}
-return SH (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SH\n");
+}
+step_err =  SH (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N39" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
@@ -2328,28 +2652,34 @@
         <v>2</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G40)</f>
         <v>2</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C40, " (mips_cpu_h state, ", IF(F40="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F40 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error J (mips_cpu_h state, uint32_t target){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H40, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C40, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C40," (state, ",IF(F40="I","rs, rt, imm",IF(F40="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 2:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "J"\n);}
-return J (state,  target);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "J\n");
+}
+step_err =  J (state,  target);
+break;</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
@@ -2366,28 +2696,34 @@
         <v>8</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G41)</f>
         <v>8</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error JR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C41, " (mips_cpu_h state, ", IF(F41="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F41 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error JR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H41, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C41, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C41," (state, ",IF(F41="I","rs, rt, imm",IF(F41="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 8:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "JR"\n);}
-return JR (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "JR\n");
+}
+step_err =  JR (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N41" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="1" t="s">
         <v>62</v>
       </c>
@@ -2404,28 +2740,34 @@
         <v>10</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G42)</f>
         <v>16</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error MFHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C42, " (mips_cpu_h state, ", IF(F42="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F42 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error MFHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H42, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C42, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C42," (state, ",IF(F42="I","rs, rt, imm",IF(F42="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 16:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "MFHI"\n);}
-return MFHI (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MFHI\n");
+}
+step_err =  MFHI (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N42" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1" t="s">
         <v>66</v>
       </c>
@@ -2442,28 +2784,34 @@
         <v>11</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G43)</f>
         <v>17</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error MTHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C43, " (mips_cpu_h state, ", IF(F43="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F43 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error MTHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H43, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C43, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C43," (state, ",IF(F43="I","rs, rt, imm",IF(F43="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 17:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "MTHI"\n);}
-return MTHI (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MTHI\n");
+}
+step_err =  MTHI (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N43" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="2" t="s">
         <v>64</v>
       </c>
@@ -2480,28 +2828,34 @@
         <v>12</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G44)</f>
         <v>18</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error MFLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C44, " (mips_cpu_h state, ", IF(F44="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F44 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error MFLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H44, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C44, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C44," (state, ",IF(F44="I","rs, rt, imm",IF(F44="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 18:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "MFLO"\n);}
-return MFLO (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MFLO\n");
+}
+step_err =  MFLO (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N44" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2" t="s">
         <v>68</v>
       </c>
@@ -2518,28 +2872,34 @@
         <v>13</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G45)</f>
         <v>19</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error MTLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C45, " (mips_cpu_h state, ", IF(F45="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F45 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error MTLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H45, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C45, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C45," (state, ",IF(F45="I","rs, rt, imm",IF(F45="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 19:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "MTLO"\n);}
-return MTLO (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MTLO\n");
+}
+step_err =  MTLO (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N45" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C46" s="2" t="s">
         <v>72</v>
       </c>
@@ -2556,28 +2916,34 @@
         <v>19</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G46)</f>
         <v>25</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error MULTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C46, " (mips_cpu_h state, ", IF(F46="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F46 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error MULTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H46, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C46, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C46," (state, ",IF(F46="I","rs, rt, imm",IF(F46="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 25:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "MULTU"\n);}
-return MULTU (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MULTU\n");
+}
+step_err =  MULTU (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N46" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
@@ -2594,28 +2960,34 @@
         <v>129</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G47)</f>
         <v>27</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error DIVU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C47, " (mips_cpu_h state, ", IF(F47="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F47 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error DIVU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H47, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C47, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C47," (state, ",IF(F47="I","rs, rt, imm",IF(F47="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 27:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "DIVU"\n);}
-return DIVU (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "DIVU\n");
+}
+step_err =  DIVU (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N47" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,30 +3004,36 @@
         <v>1</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G48)</f>
         <v>1</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J48" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C48, " (mips_cpu_h state, ", IF(F48="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F48 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BLTZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H48, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C48, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C48," (state, ",IF(F48="I","rs, rt, imm",IF(F48="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 1:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BLTZAL"\n);}
-return BLTZAL (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BLTZAL\n");
+}
+step_err =  BLTZAL (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N48" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
@@ -2672,30 +3050,36 @@
         <v>1</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G49)</f>
         <v>1</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>125</v>
       </c>
       <c r="J49" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C49, " (mips_cpu_h state, ", IF(F49="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F49 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error BGEZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H49, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C49, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C49," (state, ",IF(F49="I","rs, rt, imm",IF(F49="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 1:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "BGEZAL"\n);}
-return BGEZAL (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BGEZAL\n");
+}
+step_err =  BGEZAL (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N49" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="1" t="s">
         <v>41</v>
       </c>
@@ -2712,28 +3096,34 @@
         <v>3</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G50)</f>
         <v>3</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C50, " (mips_cpu_h state, ", IF(F50="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F50 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error JAL (mips_cpu_h state, uint32_t target){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H50, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C50, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C50," (state, ",IF(F50="I","rs, rt, imm",IF(F50="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 3:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "JAL"\n);}
-return JAL (state,  target);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "JAL\n");
+}
+step_err =  JAL (state,  target);
+break;</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
@@ -2750,28 +3140,34 @@
         <v>9</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G51)</f>
         <v>9</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error JALR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C51, " (mips_cpu_h state, ", IF(F51="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F51 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error JALR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H51, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C51, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C51," (state, ",IF(F51="I","rs, rt, imm",IF(F51="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 9:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "JALR"\n);}
-return JALR (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "JALR\n");
+}
+step_err =  JALR (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N51" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1" t="s">
         <v>70</v>
       </c>
@@ -2788,28 +3184,34 @@
         <v>18</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G52)</f>
         <v>24</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error MULT (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C52, " (mips_cpu_h state, ", IF(F52="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F52 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error MULT (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H52, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C52, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C52," (state, ",IF(F52="I","rs, rt, imm",IF(F52="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 24:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "MULT"\n);}
-return MULT (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MULT\n");
+}
+step_err =  MULT (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N52" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C53" s="1" t="s">
         <v>32</v>
       </c>
@@ -2826,28 +3228,34 @@
         <v>128</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G53)</f>
         <v>26</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">mips_error DIV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa, uint8_t function){
+        <f>CONCATENATE("mips_error ",  C53, " (mips_cpu_h state, ", IF(F53="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F53 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <v xml:space="preserve">mips_error DIV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H53, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C53, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C53," (state, ",IF(F53="I","rs, rt, imm",IF(F53="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 26:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "DIV"\n);}
-return DIV (state, rs, rt, rd, sa, function);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "DIV\n");
+}
+step_err =  DIV (state, rs, rt, rd, sa);
+break;</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N53" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C54" s="1" t="s">
         <v>57</v>
       </c>
@@ -2864,28 +3272,34 @@
         <v>22</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G54)</f>
         <v>34</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C54, " (mips_cpu_h state, ", IF(F54="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F54 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LWL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H54, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C54, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C54," (state, ",IF(F54="I","rs, rt, imm",IF(F54="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 34:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LWL"\n);}
-return LWL (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LWL\n");
+}
+step_err =  LWL (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N54" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
@@ -2902,31 +3316,37 @@
         <v>26</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(G55)</f>
         <v>38</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("mips_error ",  C55, " (mips_cpu_h state, ", IF(F55="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F55 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error LWR (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("case ",H55, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C55, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C55," (state, ",IF(F55="I","rs, rt, imm",IF(F55="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 38:
-if(state-&gt;debug_level &gt; 0){fprintf(state-&gt;debug_out, "LWR"\n);}
-return LWR (state, rs, rt, imm);</v>
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LWR\n");
+}
+step_err =  LWR (state, rs, rt, imm);
+break;</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N55" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.35">
       <c r="H61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -2941,11 +3361,27 @@
     <sortCondition ref="I3:I55"/>
   </sortState>
   <conditionalFormatting sqref="L3:L55">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",L3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",L3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",N3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",N3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N55">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",N4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",N4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -551,71 +551,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -952,18 +893,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N61"/>
+  <dimension ref="C2:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
     <col min="4" max="4" width="22.7265625" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.90625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26.08984375" customWidth="1"/>
     <col min="9" max="9" width="10.90625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" hidden="1" customWidth="1"/>
@@ -2152,88 +2094,88 @@
       </c>
     </row>
     <row r="29" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="F29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
         <f>HEX2DEC(G29)</f>
-        <v>5</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C29, " (mips_cpu_h state, ", IF(F29="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F29 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error BNE (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error J (mips_cpu_h state, uint32_t target){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE("case ",H29, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C29, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C29," (state, ",IF(F29="I","rs, rt, imm",IF(F29="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 5:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "BNE\n");
-}
-step_err =  BNE (state, rs, rt, imm);
+        <v>case 2:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "J\n");
+}
+step_err =  J (state,  target);
 break;</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="G30" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30" s="5">
         <f>HEX2DEC(G30)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C30, " (mips_cpu_h state, ", IF(F30="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F30 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error BLEZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error JAL (mips_cpu_h state, uint32_t target){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE("case ",H30, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C30, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C30," (state, ",IF(F30="I","rs, rt, imm",IF(F30="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 6:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "BLEZ\n");
-}
-step_err =  BLEZ (state, rs, rt, imm);
+        <v>case 3:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "JAL\n");
+}
+step_err =  JAL (state,  target);
 break;</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>136</v>
@@ -2241,10 +2183,10 @@
     </row>
     <row r="31" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -2253,174 +2195,174 @@
         <v>119</v>
       </c>
       <c r="G31" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4">
         <f>HEX2DEC(G31)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C31, " (mips_cpu_h state, ", IF(F31="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F31 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error BGTZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error BNE (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE("case ",H31, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C31, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C31," (state, ",IF(F31="I","rs, rt, imm",IF(F31="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 7:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "BGTZ\n");
-}
-step_err =  BGTZ (state, rs, rt, imm);
+        <v>case 5:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BNE\n");
+}
+step_err =  BNE (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="5">
+        <v>6</v>
+      </c>
+      <c r="H32" s="5">
         <f>HEX2DEC(G32)</f>
-        <v>10</v>
-      </c>
-      <c r="I32" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I32" s="5"/>
       <c r="J32" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C32, " (mips_cpu_h state, ", IF(F32="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F32 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error SLTI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error BLEZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE("case ",H32, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C32, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C32," (state, ",IF(F32="I","rs, rt, imm",IF(F32="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 10:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "SLTI\n");
-}
-step_err =  SLTI (state, rs, rt, imm);
+        <v>case 6:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BLEZ\n");
+}
+step_err =  BLEZ (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="1" t="s">
+    <row r="33" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G33" s="4">
+        <v>7</v>
+      </c>
+      <c r="H33" s="4">
         <f>HEX2DEC(G33)</f>
-        <v>11</v>
-      </c>
-      <c r="I33" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C33, " (mips_cpu_h state, ", IF(F33="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F33 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error SLTIU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error BGTZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE("case ",H33, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C33, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C33," (state, ",IF(F33="I","rs, rt, imm",IF(F33="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 11:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "SLTIU\n");
-}
-step_err =  SLTIU (state, rs, rt, imm);
+        <v>case 7:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BGTZ\n");
+}
+step_err =  BGTZ (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="1" t="s">
+    <row r="34" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="5">
-        <v>20</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="G34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="4">
         <f>HEX2DEC(G34)</f>
-        <v>32</v>
-      </c>
-      <c r="I34" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C34, " (mips_cpu_h state, ", IF(F34="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F34 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error LB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error SLTI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE("case ",H34, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C34, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C34," (state, ",IF(F34="I","rs, rt, imm",IF(F34="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 32:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "LB\n");
-}
-step_err =  LB (state, rs, rt, imm);
+        <v>case 10:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLTI\n");
+}
+step_err =  SLTI (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>16</v>
@@ -2428,164 +2370,164 @@
       <c r="F35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="5">
-        <v>21</v>
+      <c r="G35" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="H35" s="5">
         <f>HEX2DEC(G35)</f>
-        <v>33</v>
-      </c>
-      <c r="I35" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="I35" s="6"/>
       <c r="J35" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C35, " (mips_cpu_h state, ", IF(F35="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F35 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error LH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error SLTIU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE("case ",H35, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C35, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C35," (state, ",IF(F35="I","rs, rt, imm",IF(F35="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 33:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "LH\n");
-}
-step_err =  LH (state, rs, rt, imm);
+        <v>case 11:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SLTIU\n");
+}
+step_err =  SLTIU (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="4">
-        <v>24</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="5">
+        <v>20</v>
+      </c>
+      <c r="H36" s="5">
         <f>HEX2DEC(G36)</f>
-        <v>36</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C36, " (mips_cpu_h state, ", IF(F36="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F36 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error LBU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error LB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE("case ",H36, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C36, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C36," (state, ",IF(F36="I","rs, rt, imm",IF(F36="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 36:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "LBU\n");
-}
-step_err =  LBU (state, rs, rt, imm);
+        <v>case 32:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LB\n");
+}
+step_err =  LB (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="4">
-        <v>25</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="5">
+        <v>21</v>
+      </c>
+      <c r="H37" s="5">
         <f>HEX2DEC(G37)</f>
-        <v>37</v>
-      </c>
-      <c r="I37" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C37, " (mips_cpu_h state, ", IF(F37="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F37 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error LHU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error LH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE("case ",H37, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C37, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C37," (state, ",IF(F37="I","rs, rt, imm",IF(F37="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 37:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "LHU\n");
-}
-step_err =  LHU (state, rs, rt, imm);
+        <v>case 33:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LH\n");
+}
+step_err =  LH (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N37" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="5">
-        <v>28</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="G38" s="4">
+        <v>24</v>
+      </c>
+      <c r="H38" s="4">
         <f>HEX2DEC(G38)</f>
-        <v>40</v>
-      </c>
-      <c r="I38" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="I38" s="4"/>
       <c r="J38" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C38, " (mips_cpu_h state, ", IF(F38="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F38 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error SB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error LBU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE("case ",H38, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C38, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C38," (state, ",IF(F38="I","rs, rt, imm",IF(F38="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 40:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "SB\n");
-}
-step_err =  SB (state, rs, rt, imm);
+        <v>case 36:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LBU\n");
+}
+step_err =  LBU (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N38" s="8" t="s">
         <v>136</v>
@@ -2593,10 +2535,10 @@
     </row>
     <row r="39" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -2605,31 +2547,31 @@
         <v>119</v>
       </c>
       <c r="G39" s="4">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H39" s="4">
         <f>HEX2DEC(G39)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C39, " (mips_cpu_h state, ", IF(F39="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F39 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error SH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error LHU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE("case ",H39, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C39, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C39," (state, ",IF(F39="I","rs, rt, imm",IF(F39="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 41:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "SH\n");
-}
-step_err =  SH (state, rs, rt, imm);
+        <v>case 37:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "LHU\n");
+}
+step_err =  LHU (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>136</v>
@@ -2637,39 +2579,39 @@
     </row>
     <row r="40" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="G40" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H40" s="5">
         <f>HEX2DEC(G40)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C40, " (mips_cpu_h state, ", IF(F40="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F40 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error J (mips_cpu_h state, uint32_t target){
+        <v xml:space="preserve">mips_error SB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE("case ",H40, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C40, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C40," (state, ",IF(F40="I","rs, rt, imm",IF(F40="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 2:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "J\n");
-}
-step_err =  J (state,  target);
+        <v>case 40:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SB\n");
+}
+step_err =  SB (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -2681,87 +2623,87 @@
     </row>
     <row r="41" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C41" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G41" s="4">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H41" s="4">
         <f>HEX2DEC(G41)</f>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C41, " (mips_cpu_h state, ", IF(F41="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F41 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error JR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
+        <v xml:space="preserve">mips_error SH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE("case ",H41, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C41, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C41," (state, ",IF(F41="I","rs, rt, imm",IF(F41="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 8:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "JR\n");
-}
-step_err =  JR (state, rs, rt, rd, sa);
+        <v>case 41:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "SH\n");
+}
+step_err =  SH (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="5">
-        <v>10</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="G42" s="4">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4">
         <f>HEX2DEC(G42)</f>
-        <v>16</v>
-      </c>
-      <c r="I42" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="I42" s="4"/>
       <c r="J42" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C42, " (mips_cpu_h state, ", IF(F42="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F42 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error MFHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
+        <v xml:space="preserve">mips_error JR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE("case ",H42, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C42, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C42," (state, ",IF(F42="I","rs, rt, imm",IF(F42="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 16:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "MFHI\n");
-}
-step_err =  MFHI (state, rs, rt, rd, sa);
+        <v>case 8:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "JR\n");
+}
+step_err =  JR (state, rs, rt, rd, sa);
 break;</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>136</v>
@@ -2769,10 +2711,10 @@
     </row>
     <row r="43" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>36</v>
@@ -2781,27 +2723,27 @@
         <v>116</v>
       </c>
       <c r="G43" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="5">
         <f>HEX2DEC(G43)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C43, " (mips_cpu_h state, ", IF(F43="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F43 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error MTHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
+        <v xml:space="preserve">mips_error MFHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE("case ",H43, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C43, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C43," (state, ",IF(F43="I","rs, rt, imm",IF(F43="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 17:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "MTHI\n");
-}
-step_err =  MTHI (state, rs, rt, rd, sa);
+        <v>case 16:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MFHI\n");
+}
+step_err =  MFHI (state, rs, rt, rd, sa);
 break;</v>
       </c>
       <c r="L43" s="8" t="s">
@@ -2812,40 +2754,40 @@
       </c>
     </row>
     <row r="44" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="4">
-        <v>12</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G44" s="5">
+        <v>11</v>
+      </c>
+      <c r="H44" s="5">
         <f>HEX2DEC(G44)</f>
-        <v>18</v>
-      </c>
-      <c r="I44" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I44" s="5"/>
       <c r="J44" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C44, " (mips_cpu_h state, ", IF(F44="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F44 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error MFLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
+        <v xml:space="preserve">mips_error MTHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE("case ",H44, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C44, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C44," (state, ",IF(F44="I","rs, rt, imm",IF(F44="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 18:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "MFLO\n");
-}
-step_err =  MFLO (state, rs, rt, rd, sa);
+        <v>case 17:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MTHI\n");
+}
+step_err =  MTHI (state, rs, rt, rd, sa);
 break;</v>
       </c>
       <c r="L44" s="8" t="s">
@@ -2857,10 +2799,10 @@
     </row>
     <row r="45" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>36</v>
@@ -2869,27 +2811,27 @@
         <v>116</v>
       </c>
       <c r="G45" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="4">
         <f>HEX2DEC(G45)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C45, " (mips_cpu_h state, ", IF(F45="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F45 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error MTLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
+        <v xml:space="preserve">mips_error MFLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE("case ",H45, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C45, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C45," (state, ",IF(F45="I","rs, rt, imm",IF(F45="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 19:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "MTLO\n");
-}
-step_err =  MTLO (state, rs, rt, rd, sa);
+        <v>case 18:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MFLO\n");
+}
+step_err =  MFLO (state, rs, rt, rd, sa);
 break;</v>
       </c>
       <c r="L45" s="8" t="s">
@@ -2901,10 +2843,10 @@
     </row>
     <row r="46" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>36</v>
@@ -2913,27 +2855,27 @@
         <v>116</v>
       </c>
       <c r="G46" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H46" s="4">
         <f>HEX2DEC(G46)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C46, " (mips_cpu_h state, ", IF(F46="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F46 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error MULTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
+        <v xml:space="preserve">mips_error MTLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K46" t="str">
         <f>CONCATENATE("case ",H46, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C46, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C46," (state, ",IF(F46="I","rs, rt, imm",IF(F46="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 25:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "MULTU\n");
-}
-step_err =  MULTU (state, rs, rt, rd, sa);
+        <v>case 19:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MTLO\n");
+}
+step_err =  MTLO (state, rs, rt, rd, sa);
 break;</v>
       </c>
       <c r="L46" s="8" t="s">
@@ -2945,10 +2887,10 @@
     </row>
     <row r="47" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>36</v>
@@ -2956,28 +2898,28 @@
       <c r="F47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>129</v>
+      <c r="G47" s="4">
+        <v>19</v>
       </c>
       <c r="H47" s="4">
         <f>HEX2DEC(G47)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C47, " (mips_cpu_h state, ", IF(F47="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F47 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error DIVU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
+        <v xml:space="preserve">mips_error MULTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K47" t="str">
         <f>CONCATENATE("case ",H47, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C47, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C47," (state, ",IF(F47="I","rs, rt, imm",IF(F47="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 27:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "DIVU\n");
-}
-step_err =  DIVU (state, rs, rt, rd, sa);
+        <v>case 25:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "MULTU\n");
+}
+step_err =  MULTU (state, rs, rt, rd, sa);
 break;</v>
       </c>
       <c r="L47" s="8" t="s">
@@ -2988,42 +2930,40 @@
       </c>
     </row>
     <row r="48" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="C48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="4">
         <f>HEX2DEC(G48)</f>
-        <v>1</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>127</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I48" s="4"/>
       <c r="J48" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C48, " (mips_cpu_h state, ", IF(F48="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F48 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error BLTZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error DIVU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K48" t="str">
         <f>CONCATENATE("case ",H48, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C48, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C48," (state, ",IF(F48="I","rs, rt, imm",IF(F48="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 1:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "BLTZAL\n");
-}
-step_err =  BLTZAL (state, rs, rt, imm);
+        <v>case 27:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "DIVU\n");
+}
+step_err =  DIVU (state, rs, rt, rd, sa);
 break;</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -3033,12 +2973,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>21</v>
@@ -3054,11 +2994,11 @@
         <v>1</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J49" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C49, " (mips_cpu_h state, ", IF(F49="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F49 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error BGEZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
+        <v xml:space="preserve">mips_error BLTZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
@@ -3067,53 +3007,55 @@
         <f>CONCATENATE("case ",H49, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C49, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C49," (state, ",IF(F49="I","rs, rt, imm",IF(F49="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 1:
 if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "BGEZAL\n");
-}
-step_err =  BGEZAL (state, rs, rt, imm);
+fprintf(state-&gt;debug_out, "BLTZAL\n");
+}
+step_err =  BLTZAL (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N49" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:15" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="G50" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="5">
         <f>HEX2DEC(G50)</f>
-        <v>3</v>
-      </c>
-      <c r="I50" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="J50" s="8" t="str">
         <f>CONCATENATE("mips_error ",  C50, " (mips_cpu_h state, ", IF(F50="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F50 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
-        <v xml:space="preserve">mips_error JAL (mips_cpu_h state, uint32_t target){
+        <v xml:space="preserve">mips_error BGEZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K50" t="str">
         <f>CONCATENATE("case ",H50, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C50, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C50," (state, ",IF(F50="I","rs, rt, imm",IF(F50="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
-        <v>case 3:
-if(state-&gt;debug_level &gt; 0){
-fprintf(state-&gt;debug_out, "JAL\n");
-}
-step_err =  JAL (state,  target);
+        <v>case 1:
+if(state-&gt;debug_level &gt; 0){
+fprintf(state-&gt;debug_out, "BGEZAL\n");
+}
+step_err =  BGEZAL (state, rs, rt, imm);
 break;</v>
       </c>
       <c r="L50" s="8" t="s">
@@ -3122,8 +3064,9 @@
       <c r="N50" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
@@ -3167,7 +3110,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1" t="s">
         <v>70</v>
       </c>
@@ -3211,7 +3154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C53" s="1" t="s">
         <v>32</v>
       </c>
@@ -3255,7 +3198,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C54" s="1" t="s">
         <v>57</v>
       </c>
@@ -3299,7 +3242,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
@@ -3343,10 +3286,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -3355,32 +3298,33 @@
     </row>
   </sheetData>
   <sortState ref="C3:N55">
+    <sortCondition descending="1" ref="L3:L55"/>
     <sortCondition ref="E3:E55"/>
     <sortCondition ref="F3:F55"/>
     <sortCondition ref="H3:H55"/>
     <sortCondition ref="I3:I55"/>
   </sortState>
   <conditionalFormatting sqref="L3:L55">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",L3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",N3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",N3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N55">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",N4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",N4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -895,17 +895,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
     <col min="4" max="4" width="22.7265625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
     <col min="8" max="8" width="26.08984375" customWidth="1"/>
     <col min="9" max="9" width="10.90625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" hidden="1" customWidth="1"/>
@@ -962,19 +961,19 @@
         <v>21</v>
       </c>
       <c r="H3" s="4">
-        <f>HEX2DEC(G3)</f>
+        <f t="shared" ref="H3:H34" si="0">HEX2DEC(G3)</f>
         <v>33</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C3, " (mips_cpu_h state, ", IF(F3="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F3 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" ref="J3:J34" si="1">CONCATENATE("mips_error ",  C3, " (mips_cpu_h state, ", IF(F3="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F3 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error ADDU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE("case ",H3, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C3, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C3," (state, ",IF(F3="I","rs, rt, imm",IF(F3="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" ref="K3:K34" si="2">CONCATENATE("case ",H3, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C3, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C3," (state, ",IF(F3="I","rs, rt, imm",IF(F3="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 33:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "ADDU\n");
@@ -1006,19 +1005,19 @@
         <v>23</v>
       </c>
       <c r="H4" s="4">
-        <f>HEX2DEC(G4)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C4, " (mips_cpu_h state, ", IF(F4="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F4 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SUBU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K4" t="str">
-        <f>CONCATENATE("case ",H4, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C4, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C4," (state, ",IF(F4="I","rs, rt, imm",IF(F4="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 35:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SUBU\n");
@@ -1050,19 +1049,19 @@
         <v>24</v>
       </c>
       <c r="H5" s="5">
-        <f>HEX2DEC(G5)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C5, " (mips_cpu_h state, ", IF(F5="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F5 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error AND (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K5" t="str">
-        <f>CONCATENATE("case ",H5, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C5, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C5," (state, ",IF(F5="I","rs, rt, imm",IF(F5="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 36:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "AND\n");
@@ -1094,19 +1093,19 @@
         <v>25</v>
       </c>
       <c r="H6" s="5">
-        <f>HEX2DEC(G6)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C6, " (mips_cpu_h state, ", IF(F6="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F6 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error OR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K6" t="str">
-        <f>CONCATENATE("case ",H6, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C6, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C6," (state, ",IF(F6="I","rs, rt, imm",IF(F6="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 37:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "OR\n");
@@ -1138,19 +1137,19 @@
         <v>26</v>
       </c>
       <c r="H7" s="4">
-        <f>HEX2DEC(G7)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C7, " (mips_cpu_h state, ", IF(F7="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F7 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error XOR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K7" t="str">
-        <f>CONCATENATE("case ",H7, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C7, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C7," (state, ",IF(F7="I","rs, rt, imm",IF(F7="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 38:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "XOR\n");
@@ -1162,7 +1161,7 @@
         <v>139</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1182,19 +1181,19 @@
         <v>134</v>
       </c>
       <c r="H8" s="4">
-        <f>HEX2DEC(G8)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C8, " (mips_cpu_h state, ", IF(F8="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F8 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SLTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K8" t="str">
-        <f>CONCATENATE("case ",H8, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C8, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C8," (state, ",IF(F8="I","rs, rt, imm",IF(F8="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 43:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SLTU\n");
@@ -1206,7 +1205,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1226,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="H9" s="4">
-        <f>HEX2DEC(G9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C9, " (mips_cpu_h state, ", IF(F9="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F9 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error ADDI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K9" t="str">
-        <f>CONCATENATE("case ",H9, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C9, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C9," (state, ",IF(F9="I","rs, rt, imm",IF(F9="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 8:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "ADDI\n");
@@ -1249,8 +1248,8 @@
       <c r="L9" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>136</v>
+      <c r="N9" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1270,19 +1269,19 @@
         <v>9</v>
       </c>
       <c r="H10" s="5">
-        <f>HEX2DEC(G10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C10, " (mips_cpu_h state, ", IF(F10="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F10 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error ADDIU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K10" t="str">
-        <f>CONCATENATE("case ",H10, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C10, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C10," (state, ",IF(F10="I","rs, rt, imm",IF(F10="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 9:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "ADDIU\n");
@@ -1294,7 +1293,7 @@
         <v>139</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1314,19 +1313,19 @@
         <v>121</v>
       </c>
       <c r="H11" s="4">
-        <f>HEX2DEC(G11)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C11, " (mips_cpu_h state, ", IF(F11="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F11 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error ANDI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K11" t="str">
-        <f>CONCATENATE("case ",H11, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C11, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C11," (state, ",IF(F11="I","rs, rt, imm",IF(F11="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 12:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "ANDI\n");
@@ -1338,7 +1337,7 @@
         <v>139</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1358,19 +1357,19 @@
         <v>133</v>
       </c>
       <c r="H12" s="4">
-        <f>HEX2DEC(G12)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C12, " (mips_cpu_h state, ", IF(F12="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F12 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error ORI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K12" t="str">
-        <f>CONCATENATE("case ",H12, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C12, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C12," (state, ",IF(F12="I","rs, rt, imm",IF(F12="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 13:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "ORI\n");
@@ -1382,7 +1381,7 @@
         <v>139</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1402,19 +1401,19 @@
         <v>120</v>
       </c>
       <c r="H13" s="5">
-        <f>HEX2DEC(G13)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C13, " (mips_cpu_h state, ", IF(F13="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F13 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error XORI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K13" t="str">
-        <f>CONCATENATE("case ",H13, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C13, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C13," (state, ",IF(F13="I","rs, rt, imm",IF(F13="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 14:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "XORI\n");
@@ -1426,7 +1425,7 @@
         <v>139</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1446,19 +1445,19 @@
         <v>131</v>
       </c>
       <c r="H14" s="5">
-        <f>HEX2DEC(G14)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C14, " (mips_cpu_h state, ", IF(F14="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F14 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error LUI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K14" t="str">
-        <f>CONCATENATE("case ",H14, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C14, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C14," (state, ",IF(F14="I","rs, rt, imm",IF(F14="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 15:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LUI\n");
@@ -1490,19 +1489,19 @@
         <v>23</v>
       </c>
       <c r="H15" s="4">
-        <f>HEX2DEC(G15)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C15, " (mips_cpu_h state, ", IF(F15="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F15 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error LW (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K15" t="str">
-        <f>CONCATENATE("case ",H15, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C15, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C15," (state, ",IF(F15="I","rs, rt, imm",IF(F15="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 35:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LW\n");
@@ -1534,19 +1533,19 @@
         <v>134</v>
       </c>
       <c r="H16" s="5">
-        <f>HEX2DEC(G16)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C16, " (mips_cpu_h state, ", IF(F16="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F16 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SW (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K16" t="str">
-        <f>CONCATENATE("case ",H16, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C16, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C16," (state, ",IF(F16="I","rs, rt, imm",IF(F16="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 43:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SW\n");
@@ -1578,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f>HEX2DEC(G17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C17, " (mips_cpu_h state, ", IF(F17="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F17 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SLL (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K17" t="str">
-        <f>CONCATENATE("case ",H17, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C17, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C17," (state, ",IF(F17="I","rs, rt, imm",IF(F17="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 0:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SLL\n");
@@ -1622,19 +1621,19 @@
         <v>2</v>
       </c>
       <c r="H18" s="5">
-        <f>HEX2DEC(G18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C18, " (mips_cpu_h state, ", IF(F18="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F18 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SRL (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K18" t="str">
-        <f>CONCATENATE("case ",H18, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C18, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C18," (state, ",IF(F18="I","rs, rt, imm",IF(F18="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 2:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SRL\n");
@@ -1666,19 +1665,19 @@
         <v>3</v>
       </c>
       <c r="H19" s="5">
-        <f>HEX2DEC(G19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C19, " (mips_cpu_h state, ", IF(F19="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F19 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SRA (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K19" t="str">
-        <f>CONCATENATE("case ",H19, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C19, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C19," (state, ",IF(F19="I","rs, rt, imm",IF(F19="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 3:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SRA\n");
@@ -1710,19 +1709,19 @@
         <v>6</v>
       </c>
       <c r="H20" s="4">
-        <f>HEX2DEC(G20)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C20, " (mips_cpu_h state, ", IF(F20="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F20 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SRLV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K20" t="str">
-        <f>CONCATENATE("case ",H20, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C20, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C20," (state, ",IF(F20="I","rs, rt, imm",IF(F20="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 6:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SRLV\n");
@@ -1754,19 +1753,19 @@
         <v>7</v>
       </c>
       <c r="H21" s="4">
-        <f>HEX2DEC(G21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C21, " (mips_cpu_h state, ", IF(F21="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F21 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SRAV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K21" t="str">
-        <f>CONCATENATE("case ",H21, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C21, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C21," (state, ",IF(F21="I","rs, rt, imm",IF(F21="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 7:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SRAV\n");
@@ -1798,19 +1797,19 @@
         <v>20</v>
       </c>
       <c r="H22" s="5">
-        <f>HEX2DEC(G22)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C22, " (mips_cpu_h state, ", IF(F22="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F22 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error ADD (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K22" t="str">
-        <f>CONCATENATE("case ",H22, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C22, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C22," (state, ",IF(F22="I","rs, rt, imm",IF(F22="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 32:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "ADD\n");
@@ -1842,19 +1841,19 @@
         <v>22</v>
       </c>
       <c r="H23" s="5">
-        <f>HEX2DEC(G23)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C23, " (mips_cpu_h state, ", IF(F23="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F23 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SUB (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K23" t="str">
-        <f>CONCATENATE("case ",H23, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C23, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C23," (state, ",IF(F23="I","rs, rt, imm",IF(F23="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 34:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SUB\n");
@@ -1866,7 +1865,7 @@
         <v>139</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1886,19 +1885,19 @@
         <v>132</v>
       </c>
       <c r="H24" s="5">
-        <f>HEX2DEC(G24)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C24, " (mips_cpu_h state, ", IF(F24="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F24 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SLT (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K24" t="str">
-        <f>CONCATENATE("case ",H24, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C24, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C24," (state, ",IF(F24="I","rs, rt, imm",IF(F24="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 42:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SLT\n");
@@ -1930,19 +1929,19 @@
         <v>4</v>
       </c>
       <c r="H25" s="4">
-        <f>HEX2DEC(G25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C25, " (mips_cpu_h state, ", IF(F25="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F25 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SLLV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K25" t="str">
-        <f>CONCATENATE("case ",H25, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C25, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C25," (state, ",IF(F25="I","rs, rt, imm",IF(F25="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 4:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SLLV\n");
@@ -1974,21 +1973,21 @@
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <f>HEX2DEC(G26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>126</v>
       </c>
       <c r="J26" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C26, " (mips_cpu_h state, ", IF(F26="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F26 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error BLTZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K26" t="str">
-        <f>CONCATENATE("case ",H26, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C26, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C26," (state, ",IF(F26="I","rs, rt, imm",IF(F26="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 1:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BLTZ\n");
@@ -2020,21 +2019,21 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <f>HEX2DEC(G27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>124</v>
       </c>
       <c r="J27" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C27, " (mips_cpu_h state, ", IF(F27="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F27 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error BGEZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K27" t="str">
-        <f>CONCATENATE("case ",H27, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C27, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C27," (state, ",IF(F27="I","rs, rt, imm",IF(F27="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 1:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BGEZ\n");
@@ -2066,19 +2065,19 @@
         <v>4</v>
       </c>
       <c r="H28" s="5">
-        <f>HEX2DEC(G28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C28, " (mips_cpu_h state, ", IF(F28="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F28 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error BEQ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K28" t="str">
-        <f>CONCATENATE("case ",H28, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C28, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C28," (state, ",IF(F28="I","rs, rt, imm",IF(F28="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 4:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BEQ\n");
@@ -2110,19 +2109,19 @@
         <v>2</v>
       </c>
       <c r="H29" s="5">
-        <f>HEX2DEC(G29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C29, " (mips_cpu_h state, ", IF(F29="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F29 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error J (mips_cpu_h state, uint32_t target){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K29" t="str">
-        <f>CONCATENATE("case ",H29, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C29, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C29," (state, ",IF(F29="I","rs, rt, imm",IF(F29="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 2:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "J\n");
@@ -2134,7 +2133,7 @@
         <v>139</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2154,19 +2153,19 @@
         <v>3</v>
       </c>
       <c r="H30" s="5">
-        <f>HEX2DEC(G30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C30, " (mips_cpu_h state, ", IF(F30="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F30 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error JAL (mips_cpu_h state, uint32_t target){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K30" t="str">
-        <f>CONCATENATE("case ",H30, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C30, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C30," (state, ",IF(F30="I","rs, rt, imm",IF(F30="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 3:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "JAL\n");
@@ -2177,7 +2176,7 @@
       <c r="L30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2198,19 +2197,19 @@
         <v>5</v>
       </c>
       <c r="H31" s="4">
-        <f>HEX2DEC(G31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C31, " (mips_cpu_h state, ", IF(F31="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F31 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error BNE (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K31" t="str">
-        <f>CONCATENATE("case ",H31, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C31, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C31," (state, ",IF(F31="I","rs, rt, imm",IF(F31="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 5:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BNE\n");
@@ -2242,19 +2241,19 @@
         <v>6</v>
       </c>
       <c r="H32" s="5">
-        <f>HEX2DEC(G32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C32, " (mips_cpu_h state, ", IF(F32="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F32 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error BLEZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K32" t="str">
-        <f>CONCATENATE("case ",H32, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C32, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C32," (state, ",IF(F32="I","rs, rt, imm",IF(F32="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 6:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BLEZ\n");
@@ -2286,19 +2285,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="4">
-        <f>HEX2DEC(G33)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C33, " (mips_cpu_h state, ", IF(F33="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F33 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error BGTZ (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K33" t="str">
-        <f>CONCATENATE("case ",H33, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C33, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C33," (state, ",IF(F33="I","rs, rt, imm",IF(F33="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 7:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BGTZ\n");
@@ -2330,19 +2329,19 @@
         <v>117</v>
       </c>
       <c r="H34" s="4">
-        <f>HEX2DEC(G34)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C34, " (mips_cpu_h state, ", IF(F34="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F34 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">mips_error SLTI (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K34" t="str">
-        <f>CONCATENATE("case ",H34, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C34, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C34," (state, ",IF(F34="I","rs, rt, imm",IF(F34="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="2"/>
         <v>case 10:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SLTI\n");
@@ -2374,19 +2373,19 @@
         <v>130</v>
       </c>
       <c r="H35" s="5">
-        <f>HEX2DEC(G35)</f>
+        <f t="shared" ref="H35:H66" si="3">HEX2DEC(G35)</f>
         <v>11</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C35, " (mips_cpu_h state, ", IF(F35="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F35 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" ref="J35:J55" si="4">CONCATENATE("mips_error ",  C35, " (mips_cpu_h state, ", IF(F35="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F35 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
         <v xml:space="preserve">mips_error SLTIU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K35" t="str">
-        <f>CONCATENATE("case ",H35, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C35, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C35," (state, ",IF(F35="I","rs, rt, imm",IF(F35="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" ref="K35:K55" si="5">CONCATENATE("case ",H35, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C35, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C35," (state, ",IF(F35="I","rs, rt, imm",IF(F35="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
         <v>case 11:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SLTIU\n");
@@ -2418,19 +2417,19 @@
         <v>20</v>
       </c>
       <c r="H36" s="5">
-        <f>HEX2DEC(G36)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C36, " (mips_cpu_h state, ", IF(F36="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F36 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error LB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K36" t="str">
-        <f>CONCATENATE("case ",H36, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C36, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C36," (state, ",IF(F36="I","rs, rt, imm",IF(F36="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 32:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LB\n");
@@ -2462,19 +2461,19 @@
         <v>21</v>
       </c>
       <c r="H37" s="5">
-        <f>HEX2DEC(G37)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C37, " (mips_cpu_h state, ", IF(F37="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F37 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error LH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K37" t="str">
-        <f>CONCATENATE("case ",H37, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C37, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C37," (state, ",IF(F37="I","rs, rt, imm",IF(F37="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 33:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LH\n");
@@ -2506,19 +2505,19 @@
         <v>24</v>
       </c>
       <c r="H38" s="4">
-        <f>HEX2DEC(G38)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C38, " (mips_cpu_h state, ", IF(F38="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F38 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error LBU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K38" t="str">
-        <f>CONCATENATE("case ",H38, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C38, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C38," (state, ",IF(F38="I","rs, rt, imm",IF(F38="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 36:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LBU\n");
@@ -2550,19 +2549,19 @@
         <v>25</v>
       </c>
       <c r="H39" s="4">
-        <f>HEX2DEC(G39)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C39, " (mips_cpu_h state, ", IF(F39="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F39 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error LHU (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K39" t="str">
-        <f>CONCATENATE("case ",H39, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C39, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C39," (state, ",IF(F39="I","rs, rt, imm",IF(F39="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 37:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LHU\n");
@@ -2594,19 +2593,19 @@
         <v>28</v>
       </c>
       <c r="H40" s="5">
-        <f>HEX2DEC(G40)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C40, " (mips_cpu_h state, ", IF(F40="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F40 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error SB (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K40" t="str">
-        <f>CONCATENATE("case ",H40, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C40, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C40," (state, ",IF(F40="I","rs, rt, imm",IF(F40="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 40:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SB\n");
@@ -2638,19 +2637,19 @@
         <v>29</v>
       </c>
       <c r="H41" s="4">
-        <f>HEX2DEC(G41)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C41, " (mips_cpu_h state, ", IF(F41="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F41 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error SH (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K41" t="str">
-        <f>CONCATENATE("case ",H41, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C41, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C41," (state, ",IF(F41="I","rs, rt, imm",IF(F41="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 41:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "SH\n");
@@ -2682,19 +2681,19 @@
         <v>8</v>
       </c>
       <c r="H42" s="4">
-        <f>HEX2DEC(G42)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C42, " (mips_cpu_h state, ", IF(F42="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F42 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error JR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K42" t="str">
-        <f>CONCATENATE("case ",H42, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C42, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C42," (state, ",IF(F42="I","rs, rt, imm",IF(F42="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 8:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "JR\n");
@@ -2726,19 +2725,19 @@
         <v>10</v>
       </c>
       <c r="H43" s="5">
-        <f>HEX2DEC(G43)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C43, " (mips_cpu_h state, ", IF(F43="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F43 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error MFHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K43" t="str">
-        <f>CONCATENATE("case ",H43, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C43, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C43," (state, ",IF(F43="I","rs, rt, imm",IF(F43="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 16:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "MFHI\n");
@@ -2770,19 +2769,19 @@
         <v>11</v>
       </c>
       <c r="H44" s="5">
-        <f>HEX2DEC(G44)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C44, " (mips_cpu_h state, ", IF(F44="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F44 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error MTHI (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K44" t="str">
-        <f>CONCATENATE("case ",H44, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C44, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C44," (state, ",IF(F44="I","rs, rt, imm",IF(F44="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 17:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "MTHI\n");
@@ -2814,19 +2813,19 @@
         <v>12</v>
       </c>
       <c r="H45" s="4">
-        <f>HEX2DEC(G45)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C45, " (mips_cpu_h state, ", IF(F45="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F45 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error MFLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K45" t="str">
-        <f>CONCATENATE("case ",H45, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C45, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C45," (state, ",IF(F45="I","rs, rt, imm",IF(F45="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 18:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "MFLO\n");
@@ -2858,19 +2857,19 @@
         <v>13</v>
       </c>
       <c r="H46" s="4">
-        <f>HEX2DEC(G46)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C46, " (mips_cpu_h state, ", IF(F46="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F46 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error MTLO (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K46" t="str">
-        <f>CONCATENATE("case ",H46, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C46, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C46," (state, ",IF(F46="I","rs, rt, imm",IF(F46="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 19:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "MTLO\n");
@@ -2902,19 +2901,19 @@
         <v>19</v>
       </c>
       <c r="H47" s="4">
-        <f>HEX2DEC(G47)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C47, " (mips_cpu_h state, ", IF(F47="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F47 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error MULTU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K47" t="str">
-        <f>CONCATENATE("case ",H47, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C47, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C47," (state, ",IF(F47="I","rs, rt, imm",IF(F47="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 25:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "MULTU\n");
@@ -2946,19 +2945,19 @@
         <v>129</v>
       </c>
       <c r="H48" s="4">
-        <f>HEX2DEC(G48)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C48, " (mips_cpu_h state, ", IF(F48="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F48 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error DIVU (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K48" t="str">
-        <f>CONCATENATE("case ",H48, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C48, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C48," (state, ",IF(F48="I","rs, rt, imm",IF(F48="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 27:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "DIVU\n");
@@ -2990,21 +2989,21 @@
         <v>1</v>
       </c>
       <c r="H49" s="5">
-        <f>HEX2DEC(G49)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J49" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C49, " (mips_cpu_h state, ", IF(F49="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F49 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error BLTZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K49" t="str">
-        <f>CONCATENATE("case ",H49, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C49, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C49," (state, ",IF(F49="I","rs, rt, imm",IF(F49="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 1:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BLTZAL\n");
@@ -3036,21 +3035,21 @@
         <v>1</v>
       </c>
       <c r="H50" s="5">
-        <f>HEX2DEC(G50)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>125</v>
       </c>
       <c r="J50" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C50, " (mips_cpu_h state, ", IF(F50="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F50 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error BGEZAL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K50" t="str">
-        <f>CONCATENATE("case ",H50, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C50, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C50," (state, ",IF(F50="I","rs, rt, imm",IF(F50="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 1:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "BGEZAL\n");
@@ -3083,19 +3082,19 @@
         <v>9</v>
       </c>
       <c r="H51" s="4">
-        <f>HEX2DEC(G51)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C51, " (mips_cpu_h state, ", IF(F51="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F51 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error JALR (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K51" t="str">
-        <f>CONCATENATE("case ",H51, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C51, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C51," (state, ",IF(F51="I","rs, rt, imm",IF(F51="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 9:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "JALR\n");
@@ -3127,19 +3126,19 @@
         <v>18</v>
       </c>
       <c r="H52" s="5">
-        <f>HEX2DEC(G52)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C52, " (mips_cpu_h state, ", IF(F52="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F52 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error MULT (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K52" t="str">
-        <f>CONCATENATE("case ",H52, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C52, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C52," (state, ",IF(F52="I","rs, rt, imm",IF(F52="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 24:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "MULT\n");
@@ -3171,19 +3170,19 @@
         <v>128</v>
       </c>
       <c r="H53" s="5">
-        <f>HEX2DEC(G53)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C53, " (mips_cpu_h state, ", IF(F53="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F53 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error DIV (mips_cpu_h state, uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K53" t="str">
-        <f>CONCATENATE("case ",H53, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C53, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C53," (state, ",IF(F53="I","rs, rt, imm",IF(F53="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 26:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "DIV\n");
@@ -3215,19 +3214,19 @@
         <v>22</v>
       </c>
       <c r="H54" s="5">
-        <f>HEX2DEC(G54)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C54, " (mips_cpu_h state, ", IF(F54="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F54 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error LWL (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K54" t="str">
-        <f>CONCATENATE("case ",H54, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C54, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C54," (state, ",IF(F54="I","rs, rt, imm",IF(F54="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 34:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LWL\n");
@@ -3259,19 +3258,19 @@
         <v>26</v>
       </c>
       <c r="H55" s="4">
-        <f>HEX2DEC(G55)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="8" t="str">
-        <f>CONCATENATE("mips_error ",  C55, " (mips_cpu_h state, ", IF(F55="I", "uint8_t rs,  uint8_t rt, uint16_t imm", IF(F55 = "J", "uint32_t target", "uint8_t rs, uint8_t rt, uint8_t rd, uint8_t sa")), ")", "{", CHAR(10),  "return mips_Success;", CHAR(10),  "}", CHAR(10))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">mips_error LWR (mips_cpu_h state, uint8_t rs,  uint8_t rt, uint16_t imm){
 return mips_Success;
 }
 </v>
       </c>
       <c r="K55" t="str">
-        <f>CONCATENATE("case ",H55, ":", CHAR(10),"if(state-&gt;debug_level &gt; 0){",CHAR(10),"fprintf(state-&gt;debug_out, ",CHAR(34), C55, "\n", CHAR(34),");",CHAR(10), "}",CHAR(10),"step_err =  ",C55," (state, ",IF(F55="I","rs, rt, imm",IF(F55="J"," target","rs, rt, rd, sa")),");", CHAR(10), "break;")</f>
+        <f t="shared" si="5"/>
         <v>case 38:
 if(state-&gt;debug_level &gt; 0){
 fprintf(state-&gt;debug_out, "LWR\n");

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -1469,7 +1469,7 @@
         <v>139</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1601,7 +1601,7 @@
         <v>139</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1645,7 +1645,7 @@
         <v>139</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1689,7 +1689,7 @@
         <v>139</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2176,7 +2176,7 @@
       <c r="L30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
         <v>130</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ref="H35:H66" si="3">HEX2DEC(G35)</f>
+        <f t="shared" ref="H35:H55" si="3">HEX2DEC(G35)</f>
         <v>11</v>
       </c>
       <c r="I35" s="6"/>

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
   <si>
     <t>ADD</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Check for all branches negative condition</t>
+  </si>
+  <si>
+    <t>signextend(imm&lt;&lt;2) is bad</t>
   </si>
 </sst>
 </file>
@@ -599,21 +605,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -893,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O61"/>
+  <dimension ref="C2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,9 +916,10 @@
     <col min="10" max="10" width="11.1796875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="0.1796875" customWidth="1"/>
     <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="9" t="s">
         <v>112</v>
       </c>
@@ -944,7 +951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -988,7 +995,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
@@ -1032,7 +1039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
@@ -1119,8 +1126,9 @@
       <c r="N6" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
         <v>108</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
         <v>93</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:16" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1348,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="2" t="s">
         <v>76</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
         <v>110</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
@@ -1516,7 +1524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
         <v>106</v>
       </c>
@@ -1733,7 +1741,7 @@
         <v>139</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1777,7 +1785,7 @@
         <v>139</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1909,7 +1917,7 @@
         <v>139</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1949,11 +1957,11 @@
 step_err =  SLLV (state, rs, rt, rd, sa);
 break;</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>139</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1999,7 +2007,7 @@
         <v>139</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2044,8 +2052,11 @@
       <c r="L27" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="M27" t="s">
+        <v>140</v>
+      </c>
       <c r="N27" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2088,6 +2099,9 @@
       <c r="L28" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="M28" t="s">
+        <v>141</v>
+      </c>
       <c r="N28" s="8" t="s">
         <v>136</v>
       </c>
@@ -2265,7 +2279,7 @@
         <v>139</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2309,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2353,7 +2367,7 @@
         <v>139</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2397,7 +2411,7 @@
         <v>139</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2746,7 +2760,7 @@
 break;</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>136</v>
@@ -2790,7 +2804,7 @@
 break;</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>136</v>
@@ -2834,7 +2848,7 @@
 break;</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N45" s="8" t="s">
         <v>136</v>
@@ -2878,7 +2892,7 @@
 break;</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N46" s="8" t="s">
         <v>136</v>
@@ -2922,7 +2936,7 @@
 break;</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>136</v>
@@ -2966,7 +2980,7 @@
 break;</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>136</v>
@@ -3015,7 +3029,7 @@
         <v>139</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="3:15" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3061,7 +3075,7 @@
         <v>139</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O50" s="12"/>
     </row>
@@ -3103,7 +3117,7 @@
 break;</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>136</v>
@@ -3147,7 +3161,7 @@
 break;</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>136</v>
@@ -3190,8 +3204,8 @@
 step_err =  DIV (state, rs, rt, rd, sa);
 break;</v>
       </c>
-      <c r="L53" s="8" t="s">
-        <v>136</v>
+      <c r="L53" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>136</v>
@@ -3287,6 +3301,9 @@
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="N59" s="12"/>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H61" t="str">
@@ -3304,11 +3321,11 @@
     <sortCondition ref="I3:I55"/>
   </sortState>
   <conditionalFormatting sqref="L3:L55">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",L3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",L3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
   <si>
     <t>ADD</t>
   </si>
@@ -444,12 +444,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Check for all branches negative condition</t>
-  </si>
-  <si>
-    <t>signextend(imm&lt;&lt;2) is bad</t>
   </si>
 </sst>
 </file>
@@ -901,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2052,9 +2046,6 @@
       <c r="L27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M27" t="s">
-        <v>140</v>
-      </c>
       <c r="N27" s="8" t="s">
         <v>139</v>
       </c>
@@ -2099,11 +2090,9 @@
       <c r="L28" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M28" t="s">
-        <v>141</v>
-      </c>
+      <c r="M28" s="12"/>
       <c r="N28" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2235,7 +2224,7 @@
         <v>139</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2763,7 +2752,7 @@
         <v>139</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2807,7 +2796,7 @@
         <v>139</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2851,7 +2840,7 @@
         <v>139</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2895,7 +2884,7 @@
         <v>139</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3249,7 +3238,7 @@
 break;</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N54" s="8" t="s">
         <v>136</v>
@@ -3293,7 +3282,7 @@
 break;</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N55" s="8" t="s">
         <v>136</v>

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
   <si>
     <t>ADD</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>YEs</t>
+  </si>
+  <si>
+    <t>Missing +/- and div by 0</t>
+  </si>
+  <si>
+    <t>missing div by 0</t>
   </si>
 </sst>
 </file>
@@ -895,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2180,7 +2189,7 @@
         <v>139</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2399,7 +2408,7 @@
       <c r="L35" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N35" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2708,7 +2717,7 @@
         <v>139</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2928,7 +2937,7 @@
         <v>139</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2971,8 +2980,11 @@
       <c r="L48" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="M48" t="s">
+        <v>142</v>
+      </c>
       <c r="N48" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3109,7 +3121,7 @@
         <v>139</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3153,7 +3165,7 @@
         <v>139</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3196,7 +3208,10 @@
       <c r="L53" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N53" s="8" t="s">
+      <c r="M53" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53" s="10" t="s">
         <v>136</v>
       </c>
     </row>

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -904,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2280,7 +2280,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2323,8 +2323,9 @@
       <c r="N33" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="3:16" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="2" t="s">
         <v>89</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:16" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="2" t="s">
         <v>51</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C41" s="2" t="s">
         <v>80</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1" t="s">
         <v>62</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="1" t="s">
         <v>66</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C46" s="2" t="s">
         <v>68</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C48" s="2" t="s">
         <v>34</v>
       </c>

--- a/Instruction List.xlsx
+++ b/Instruction List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
   <si>
     <t>ADD</t>
   </si>
@@ -444,9 +444,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>YEs</t>
   </si>
   <si>
     <t>Missing +/- and div by 0</t>
@@ -904,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2454,7 +2451,7 @@
         <v>139</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2498,7 +2495,7 @@
         <v>139</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2542,7 +2539,7 @@
         <v>139</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2586,7 +2583,7 @@
         <v>139</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2938,7 +2935,7 @@
         <v>139</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2982,7 +2979,7 @@
         <v>139</v>
       </c>
       <c r="M48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>139</v>
@@ -3166,7 +3163,7 @@
         <v>139</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3210,7 +3207,7 @@
         <v>139</v>
       </c>
       <c r="M53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>136</v>
